--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pf4-Ldlr.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H2">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I2">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J2">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N2">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O2">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P2">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q2">
-        <v>6.518736422416</v>
+        <v>14.837735948412</v>
       </c>
       <c r="R2">
-        <v>58.668627801744</v>
+        <v>133.539623535708</v>
       </c>
       <c r="S2">
-        <v>0.0005608187105029161</v>
+        <v>0.00107899517058568</v>
       </c>
       <c r="T2">
-        <v>0.000608399684202908</v>
+        <v>0.001150201971869118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H3">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I3">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J3">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N3">
         <v>22.018916</v>
       </c>
       <c r="O3">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P3">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q3">
-        <v>19.31702864165689</v>
+        <v>37.36052721970578</v>
       </c>
       <c r="R3">
-        <v>173.853257774912</v>
+        <v>336.244744977352</v>
       </c>
       <c r="S3">
-        <v>0.001661878988742241</v>
+        <v>0.002716844980983216</v>
       </c>
       <c r="T3">
-        <v>0.001802876104164806</v>
+        <v>0.002896139426364068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H4">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I4">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J4">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N4">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O4">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P4">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q4">
-        <v>24.04865894426844</v>
+        <v>79.71853734715646</v>
       </c>
       <c r="R4">
-        <v>216.437930498416</v>
+        <v>717.4668361244081</v>
       </c>
       <c r="S4">
-        <v>0.002068949720389287</v>
+        <v>0.005797105239154886</v>
       </c>
       <c r="T4">
-        <v>0.00224448352550105</v>
+        <v>0.006179677220973501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H5">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I5">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J5">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N5">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O5">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P5">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q5">
-        <v>27.23163472264534</v>
+        <v>36.20335432521801</v>
       </c>
       <c r="R5">
-        <v>163.389808335872</v>
+        <v>217.220125951308</v>
       </c>
       <c r="S5">
-        <v>0.002342786896172774</v>
+        <v>0.002632695757070212</v>
       </c>
       <c r="T5">
-        <v>0.00169436906091339</v>
+        <v>0.001870957926821207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.631877333333333</v>
+        <v>5.090240666666667</v>
       </c>
       <c r="H6">
-        <v>7.895632</v>
+        <v>15.270722</v>
       </c>
       <c r="I6">
-        <v>0.01066221345642817</v>
+        <v>0.01518526656315472</v>
       </c>
       <c r="J6">
-        <v>0.01071963230056122</v>
+        <v>0.01525191836740238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N6">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O6">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P6">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q6">
-        <v>46.81732277061155</v>
+        <v>40.69910748117156</v>
       </c>
       <c r="R6">
-        <v>421.355904935504</v>
+        <v>366.291967330544</v>
       </c>
       <c r="S6">
-        <v>0.004027779140620947</v>
+        <v>0.002959625415360726</v>
       </c>
       <c r="T6">
-        <v>0.004369503925779065</v>
+        <v>0.003154941821374489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J7">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N7">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O7">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P7">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q7">
-        <v>2.527090760858</v>
+        <v>2.974078205436</v>
       </c>
       <c r="R7">
-        <v>22.743816847722</v>
+        <v>26.766703848924</v>
       </c>
       <c r="S7">
-        <v>0.0002174101988469344</v>
+        <v>0.0002162739673873906</v>
       </c>
       <c r="T7">
-        <v>0.0002358557120933977</v>
+        <v>0.0002305466702116075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J8">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N8">
         <v>22.018916</v>
       </c>
       <c r="O8">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P8">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q8">
-        <v>7.488550149028444</v>
+        <v>7.488550149028443</v>
       </c>
       <c r="R8">
-        <v>67.396951341256</v>
+        <v>67.39695134125598</v>
       </c>
       <c r="S8">
-        <v>0.0006442535433205989</v>
+        <v>0.0005445648496228385</v>
       </c>
       <c r="T8">
-        <v>0.0006989132940150341</v>
+        <v>0.0005805026574000415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J9">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N9">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O9">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P9">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q9">
-        <v>9.32284109848422</v>
+        <v>15.97879658444711</v>
       </c>
       <c r="R9">
-        <v>83.90556988635799</v>
+        <v>143.809169260024</v>
       </c>
       <c r="S9">
-        <v>0.0008020609186001927</v>
+        <v>0.00116197271648001</v>
       </c>
       <c r="T9">
-        <v>0.0008701093605637008</v>
+        <v>0.001238655506704416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J10">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N10">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O10">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P10">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q10">
-        <v>10.55677175012267</v>
+        <v>7.256606225954</v>
       </c>
       <c r="R10">
-        <v>63.340630500736</v>
+        <v>43.539637355724</v>
       </c>
       <c r="S10">
-        <v>0.0009082182092251481</v>
+        <v>0.0005276979655029061</v>
       </c>
       <c r="T10">
-        <v>0.0006568488311007562</v>
+        <v>0.0003750151109841118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.00413337483985113</v>
+        <v>0.003043737298347591</v>
       </c>
       <c r="J11">
-        <v>0.004155634158391578</v>
+        <v>0.003057096996825524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N11">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O11">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P11">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q11">
-        <v>18.14947194595578</v>
+        <v>8.157735719336888</v>
       </c>
       <c r="R11">
-        <v>163.345247513602</v>
+        <v>73.419621474032</v>
       </c>
       <c r="S11">
-        <v>0.001561431969858255</v>
+        <v>0.0005932277993544459</v>
       </c>
       <c r="T11">
-        <v>0.001693906960618689</v>
+        <v>0.0006323770515253468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H12">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I12">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J12">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N12">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O12">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P12">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q12">
-        <v>273.35006983233</v>
+        <v>201.533599467564</v>
       </c>
       <c r="R12">
-        <v>2460.15062849097</v>
+        <v>1813.802395208076</v>
       </c>
       <c r="S12">
-        <v>0.02351680199127192</v>
+        <v>0.0146554556094202</v>
       </c>
       <c r="T12">
-        <v>0.02551201419817422</v>
+        <v>0.01562262223235492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H13">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I13">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J13">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N13">
         <v>22.018916</v>
       </c>
       <c r="O13">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P13">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q13">
-        <v>810.0206521608399</v>
+        <v>507.4494892463048</v>
       </c>
       <c r="R13">
-        <v>7290.18586944756</v>
+        <v>4567.045403216743</v>
       </c>
       <c r="S13">
-        <v>0.06968754497627139</v>
+        <v>0.03690155628302124</v>
       </c>
       <c r="T13">
-        <v>0.07559997475551238</v>
+        <v>0.03933682370304907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H14">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I14">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J14">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N14">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O14">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P14">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q14">
-        <v>1008.43202973887</v>
+        <v>1082.777307246886</v>
       </c>
       <c r="R14">
-        <v>9075.888267649829</v>
+        <v>9744.995765221975</v>
       </c>
       <c r="S14">
-        <v>0.08675723543649366</v>
+        <v>0.07873920181631183</v>
       </c>
       <c r="T14">
-        <v>0.09411789167045922</v>
+        <v>0.08393548707299861</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H15">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I15">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J15">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N15">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O15">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P15">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q15">
-        <v>1141.90370199456</v>
+        <v>491.732184433546</v>
       </c>
       <c r="R15">
-        <v>6851.42221196736</v>
+        <v>2950.393106601276</v>
       </c>
       <c r="S15">
-        <v>0.09824004533592531</v>
+        <v>0.0357585991602801</v>
       </c>
       <c r="T15">
-        <v>0.07104995065144204</v>
+        <v>0.02541229246534769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>110.36247</v>
+        <v>69.13821133333333</v>
       </c>
       <c r="H16">
-        <v>331.08741</v>
+        <v>207.414634</v>
       </c>
       <c r="I16">
-        <v>0.4470984258329098</v>
+        <v>0.206253935235621</v>
       </c>
       <c r="J16">
-        <v>0.4495061693028696</v>
+        <v>0.2071592335956769</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N16">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O16">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P16">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q16">
-        <v>1963.19004473053</v>
+        <v>552.7957671113297</v>
       </c>
       <c r="R16">
-        <v>17668.71040257477</v>
+        <v>4975.161904001968</v>
       </c>
       <c r="S16">
-        <v>0.1688967980929475</v>
+        <v>0.0401991223665877</v>
       </c>
       <c r="T16">
-        <v>0.1832263380272817</v>
+        <v>0.04285200812192659</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H17">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I17">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J17">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N17">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O17">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P17">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q17">
-        <v>9.8245317422595</v>
+        <v>12.810141026514</v>
       </c>
       <c r="R17">
-        <v>58.94719045355701</v>
+        <v>76.86084615908399</v>
       </c>
       <c r="S17">
-        <v>0.0008452222740656361</v>
+        <v>0.0009315491494246056</v>
       </c>
       <c r="T17">
-        <v>0.0006112884074566112</v>
+        <v>0.000662016968979009</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H18">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I18">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J18">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N18">
         <v>22.018916</v>
       </c>
       <c r="O18">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P18">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q18">
-        <v>29.11312081947267</v>
+        <v>32.25516508538266</v>
       </c>
       <c r="R18">
-        <v>174.678724916836</v>
+        <v>193.530990512296</v>
       </c>
       <c r="S18">
-        <v>0.002504654555528266</v>
+        <v>0.002345584762700709</v>
       </c>
       <c r="T18">
-        <v>0.001811436283042068</v>
+        <v>0.001666918933955988</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H19">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I19">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J19">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N19">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O19">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P19">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q19">
-        <v>36.24426542915383</v>
+        <v>68.82490087403066</v>
       </c>
       <c r="R19">
-        <v>217.465592574923</v>
+        <v>412.949405244184</v>
       </c>
       <c r="S19">
-        <v>0.00311815985245343</v>
+        <v>0.005004923656635437</v>
       </c>
       <c r="T19">
-        <v>0.002255140486576174</v>
+        <v>0.003556811136786179</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H20">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I20">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J20">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N20">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O20">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P20">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q20">
-        <v>41.04139857630401</v>
+        <v>31.256121294471</v>
       </c>
       <c r="R20">
-        <v>164.165594305216</v>
+        <v>125.024485177884</v>
       </c>
       <c r="S20">
-        <v>0.00353086591254881</v>
+        <v>0.002272934634045962</v>
       </c>
       <c r="T20">
-        <v>0.001702414040938369</v>
+        <v>0.001076859478678034</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>3.9665605</v>
+        <v>4.394653</v>
       </c>
       <c r="H21">
-        <v>7.933121000000001</v>
+        <v>8.789306</v>
       </c>
       <c r="I21">
-        <v>0.01606925756120717</v>
+        <v>0.01311018115402158</v>
       </c>
       <c r="J21">
-        <v>0.01077052984686476</v>
+        <v>0.008778483271329277</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N21">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O21">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P21">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q21">
-        <v>70.55942192505617</v>
+        <v>35.13752423548533</v>
       </c>
       <c r="R21">
-        <v>423.356531550337</v>
+        <v>210.825145412912</v>
       </c>
       <c r="S21">
-        <v>0.006070354966611031</v>
+        <v>0.002555188951214866</v>
       </c>
       <c r="T21">
-        <v>0.004390250628851539</v>
+        <v>0.001815876752930066</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H22">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I22">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J22">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.476839</v>
+        <v>2.914938</v>
       </c>
       <c r="N22">
-        <v>7.430517</v>
+        <v>8.744814</v>
       </c>
       <c r="O22">
-        <v>0.05259871346552369</v>
+        <v>0.07105539873786189</v>
       </c>
       <c r="P22">
-        <v>0.05675564862155354</v>
+        <v>0.07541359350096061</v>
       </c>
       <c r="Q22">
-        <v>319.1663577715231</v>
+        <v>744.9584055649319</v>
       </c>
       <c r="R22">
-        <v>2872.497219943707</v>
+        <v>6704.625650084387</v>
       </c>
       <c r="S22">
-        <v>0.02745846029083629</v>
+        <v>0.05417312484104402</v>
       </c>
       <c r="T22">
-        <v>0.0297880906196264</v>
+        <v>0.05774820565754596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H23">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I23">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J23">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.339638666666667</v>
+        <v>7.339638666666666</v>
       </c>
       <c r="N23">
         <v>22.018916</v>
       </c>
       <c r="O23">
-        <v>0.1558662275458673</v>
+        <v>0.1789132228719201</v>
       </c>
       <c r="P23">
-        <v>0.168184509842788</v>
+        <v>0.1898868953137022</v>
       </c>
       <c r="Q23">
-        <v>945.7884588376709</v>
+        <v>1875.760485657919</v>
       </c>
       <c r="R23">
-        <v>8512.096129539037</v>
+        <v>16881.84437092127</v>
       </c>
       <c r="S23">
-        <v>0.08136789548200479</v>
+        <v>0.1364046719955921</v>
       </c>
       <c r="T23">
-        <v>0.08827130940605366</v>
+        <v>0.145406510592933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H24">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I24">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J24">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.137454333333332</v>
+        <v>15.66105466666667</v>
       </c>
       <c r="N24">
-        <v>27.412363</v>
+        <v>46.983164</v>
       </c>
       <c r="O24">
-        <v>0.1940450478546679</v>
+        <v>0.3817585430617917</v>
       </c>
       <c r="P24">
-        <v>0.2093806450230146</v>
+        <v>0.4051737671361525</v>
       </c>
       <c r="Q24">
-        <v>1177.45562746453</v>
+        <v>4002.42966195001</v>
       </c>
       <c r="R24">
-        <v>10597.10064718077</v>
+        <v>36021.86695755009</v>
       </c>
       <c r="S24">
-        <v>0.1012986419267313</v>
+        <v>0.2910553396332096</v>
       </c>
       <c r="T24">
-        <v>0.1098930199799144</v>
+        <v>0.3102631361986898</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H25">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I25">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J25">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.346848</v>
+        <v>7.112307</v>
       </c>
       <c r="N25">
-        <v>20.693696</v>
+        <v>14.224614</v>
       </c>
       <c r="O25">
-        <v>0.2197280054227695</v>
+        <v>0.1733717183113625</v>
       </c>
       <c r="P25">
-        <v>0.1580622369691433</v>
+        <v>0.1226703344295343</v>
       </c>
       <c r="Q25">
-        <v>1333.298527104736</v>
+        <v>1817.662290795998</v>
       </c>
       <c r="R25">
-        <v>7999.791162628419</v>
+        <v>10905.97374477599</v>
       </c>
       <c r="S25">
-        <v>0.1147060890688975</v>
+        <v>0.1321797907944633</v>
       </c>
       <c r="T25">
-        <v>0.08295865438474878</v>
+        <v>0.09393520944770321</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>128.860357</v>
+        <v>255.5657806666667</v>
       </c>
       <c r="H26">
-        <v>386.5810710000001</v>
+        <v>766.6973419999999</v>
       </c>
       <c r="I26">
-        <v>0.5220367283096038</v>
+        <v>0.7624068797488551</v>
       </c>
       <c r="J26">
-        <v>0.5248480343913128</v>
+        <v>0.765753267768766</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.78856566666667</v>
+        <v>7.995517333333333</v>
       </c>
       <c r="N26">
-        <v>53.365697</v>
+        <v>23.986552</v>
       </c>
       <c r="O26">
-        <v>0.3777620057111715</v>
+        <v>0.1949011170170639</v>
       </c>
       <c r="P26">
-        <v>0.4076169595435006</v>
+        <v>0.2068554096196504</v>
       </c>
       <c r="Q26">
-        <v>2292.24092232461</v>
+        <v>2043.380629127198</v>
       </c>
       <c r="R26">
-        <v>20630.16830092149</v>
+        <v>18390.42566214478</v>
       </c>
       <c r="S26">
-        <v>0.1972056415411338</v>
+        <v>0.1485939524845462</v>
       </c>
       <c r="T26">
-        <v>0.2139369600009696</v>
+        <v>0.1584002058718939</v>
       </c>
     </row>
   </sheetData>
